--- a/model_statistics.xlsx
+++ b/model_statistics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Projects\Quant\Quant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell-pc\Quant\Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8D8284-EC94-4755-ACCD-898D0E287211}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{49CFF7C7-3179-462F-AF06-E8052044F227}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6108" xr2:uid="{0AC0E055-5388-486B-B3C3-0690848CE20F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6105" xr2:uid="{0AC0E055-5388-486B-B3C3-0690848CE20F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -790,11 +790,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -836,7 +836,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1200,309 +1200,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296F8B7A-5696-407A-BE4B-C1C38C1030FB}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14"/>
+    <row r="20" spans="1:14"/>
+    <row r="21" spans="1:14"/>
+    <row r="22" spans="1:14"/>
+    <row r="23" spans="1:14"/>
+    <row r="24" spans="1:14"/>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="35" spans="1:14"/>
+    <row r="36" spans="1:14"/>
+    <row r="37" spans="1:14"/>
+    <row r="38" spans="1:14"/>
+    <row r="39" spans="1:14"/>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="50" spans="1:14"/>
+    <row r="51" spans="1:14"/>
+    <row r="52" spans="1:14"/>
+    <row r="53" spans="1:14"/>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N54" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
         <v>39</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
         <v>40</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
         <v>41</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
         <v>42</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="N59" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>49</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>50</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>52</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>53</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>57</v>
-      </c>
-    </row>
+    <row r="64" spans="1:14"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_statistics.xlsx
+++ b/model_statistics.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell-pc\Quant\Quant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Projects\Quant\Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{49CFF7C7-3179-462F-AF06-E8052044F227}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571FAAEB-5A56-4E77-8055-A21BB704FF53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6105" xr2:uid="{0AC0E055-5388-486B-B3C3-0690848CE20F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6108" activeTab="1" xr2:uid="{0AC0E055-5388-486B-B3C3-0690848CE20F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
   <si>
     <t>2011-02-28 2017-11-30</t>
   </si>
@@ -784,17 +785,593 @@
       <t>,</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold=0.25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10143 (0.07345255828369071, 0.05267358339984041, 0.08421085045391552, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>858 (0.08685489222531188, 0.06156303205712632, 0.09533792822108, 0.6553672316384183, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>278 (0.09123405889828416, 0.06133276842503643, 0.10843932481117351, 0.6894409937888195, -0.04543681747269901)</t>
+  </si>
+  <si>
+    <t>107 (0.10877368131573502, 0.07327285415212859, 0.11756092839592382, 0.6030395136778117, -0.037273840293837734)</t>
+  </si>
+  <si>
+    <t>63 (0.10994150598971317, 0.10049423393739687, 0.10964834852995496, 0.6200119118522929, -0.0958990536277603)</t>
+  </si>
+  <si>
+    <t>43 (0.13159011774184773, 0.12143928035982032, 0.11430091724519377, 0.6316736652669463, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>25 (0.09008892215316636, 0.049155722326454265, 0.09194689020382533, 0.3536363636363635, -0.02228510788822058)</t>
+  </si>
+  <si>
+    <t>22 (0.13417860569350135, 0.140318400592373, 0.08296694565469082, 0.2891774891774892, -0.011857707509881354)</t>
+  </si>
+  <si>
+    <t>9 (0.14358961017113364, 0.11594202898550732, 0.08190625391955934, 0.2577639751552798, 0.026952526799387533)</t>
+  </si>
+  <si>
+    <t>6 (0.14129582854741352, 0.14888685395167112, 0.07243801903036713, 0.2461538461538464, 0.030841434797184153)</t>
+  </si>
+  <si>
+    <t>lgbm.LGBMRegressor(</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num_leaves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max_depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>random_state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>min_child_samples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>scale_pos_weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.15</t>
+    </r>
+  </si>
+  <si>
+    <t>4898 (0.05450577033170429, 0.03728601147956001, 0.06634226197736116, 0.6666666666666665, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>2897 (0.07820162099466706, 0.06061538461538474, 0.08221332080666344, 0.6877551020408164, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>1356 (0.08537446002127998, 0.0662089875463111, 0.09284174192969098, 0.8043636363636364, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>783 (0.09200881853225786, 0.07106991116261119, 0.10067399570806554, 0.7051546391752574, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>494 (0.11050450960054783, 0.09051645911767547, 0.10630849124392429, 0.8832684824902723, -0.05391527599486512)</t>
+  </si>
+  <si>
+    <t>342 (0.11290761383267342, 0.09303883161780202, 0.11203184949183156, 0.8724528301886791, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>257 (0.11957977900109813, 0.10413223140495864, 0.11739324003651051, 0.6894409937888195, -0.06410648714810285)</t>
+  </si>
+  <si>
+    <t>190 (0.12884013987155007, 0.11027854576915119, 0.11679447608631588, 0.6316736652669463, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>173 (0.13132443666129318, 0.1150747986191023, 0.11459190758579363, 0.49923664122137423, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>164 (0.14644604546879547, 0.14776495003223722, 0.10771659702973949, 0.4766917293233084, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>9066 (0.06802339631556711, 0.048956291149313325, 0.07647309907152797, 0.7051546391752574, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1387 (0.09449020794538443, 0.07193229901269382, 0.10492920327183919, 0.8724528301886791, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>468 (0.10863023490684362, 0.07198513414307017, 0.12059586033036533, 0.8832684824902723, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>245 (0.10678424292072941, 0.07460070120763529, 0.1252692130912211, 0.6894409937888195, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>125 (0.12326272643526039, 0.10104384133611699, 0.10950906628730209, 0.445267489711934, -0.02695417789757415)</t>
+  </si>
+  <si>
+    <t>97 (0.1319133609348851, 0.13235294117647056, 0.10839607920061349, 0.41914618369987067, -0.05083612040133778)</t>
+  </si>
+  <si>
+    <t>57 (0.13632595459771238, 0.11377410468319571, 0.10195211837197966, 0.49923664122137423, -0.024699176694110148)</t>
+  </si>
+  <si>
+    <t>36 (0.17260440853337475, 0.16431515719125422, 0.13013509502426504, 0.4441176470588235, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>45 (0.13710936071100185, 0.10632911392405053, 0.12859764885001382, 0.49695121951219523, -0.02228510788822058)</t>
+  </si>
+  <si>
+    <t>28 (0.12016990078363497, 0.09299344373174778, 0.10737566463622615, 0.34023402340234044, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <r>
+      <t>threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.25</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.4</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.35</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>11553 (0.07586441376763267, 0.0542483660130717, 0.08670720554977991, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1 (0.020000000000000018, 0.020000000000000018, nan, 0.020000000000000018, 0.020000000000000018)</t>
+  </si>
+  <si>
+    <t>0 (nan, nan, nan, nan, nan)</t>
+  </si>
+  <si>
+    <t>11492 (0.07552837541944508, 0.05407870789654834, 0.08615749966021401, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>27 (0.138583921512122, 0.1469503546099291, 0.1390159757230891, 0.6553672316384183, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>12 (0.20693492624656337, 0.15782780306014343, 0.2291326884742282, 0.687140115163148, -0.041010194624652385)</t>
+  </si>
+  <si>
+    <t>8 (0.11886544560755416, 0.10493567412823779, 0.10652024028945341, 0.25442477876106206, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <t>10 (0.07697026186973954, 0.08202763239364319, 0.06925715297492963, 0.1952277657266812, 0.000381533765738018)</t>
+  </si>
+  <si>
+    <t>3 (0.11638100293028704, 0.10919017288444022, 0.083172843731108, 0.20291579886938393, 0.03703703703703698)</t>
+  </si>
+  <si>
+    <t>1 (0.13793103448275867, 0.13793103448275867, nan, 0.13793103448275867, 0.13793103448275867)</t>
+  </si>
+  <si>
+    <t>1 (0.07679671457905535, 0.07679671457905535, nan, 0.07679671457905535, 0.07679671457905535)</t>
+  </si>
+  <si>
+    <t>62 0.1372497086644606 0.11729525067378221 0.14703258437095384 0.687140115163148 -0.0837500000000001</t>
+  </si>
+  <si>
+    <t>11372 (0.07524080192484625, 0.0537201529162461, 0.08629408544115627, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>48 (0.12691643445341858, 0.1068310550431667, 0.12544301246710415, 0.44268774703557323, -0.04652936689549958)</t>
+  </si>
+  <si>
+    <t>33 (0.0924683926623855, 0.07117688513037357, 0.09707472606952637, 0.3475862068965516, -0.04543681747269901)</t>
+  </si>
+  <si>
+    <t>22 (0.07430321819782695, 0.07325741179703871, 0.07866115651842248, 0.2333956969130031, -0.041010194624652385)</t>
+  </si>
+  <si>
+    <t>6 (0.19717356835422695, 0.20156408766257194, 0.09455745707135432, 0.33378839590443676, 0.04024051803885298)</t>
+  </si>
+  <si>
+    <t>16 (0.10101206344101646, 0.08972144108211866, 0.10344719845980306, 0.23809523809523814, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>10 (0.07921367956254646, 0.05876992710085727, 0.07562462218770132, 0.1918636613523914, -0.006669006669006605)</t>
+  </si>
+  <si>
+    <t>7 (0.07019625098517436, 0.020959595959595845, 0.07540177770681124, 0.17446996466431108, -0.015511892450879139)</t>
+  </si>
+  <si>
+    <t>25 (0.14763316069771576, 0.17439933719966882, 0.08171910995800312, 0.28227085315572475, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <t>15 (0.15276547739909122, 0.18772032902467695, 0.08431528370265824, 0.2577639751552798, 0.000381533765738018)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -836,7 +1413,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -870,7 +1447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +1461,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1200,328 +1783,850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296F8B7A-5696-407A-BE4B-C1C38C1030FB}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A384DD-462D-4622-900F-61FD572F04F9}">
+  <dimension ref="A1:N106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="3" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="3" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="3" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="4" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14"/>
-    <row r="20" spans="1:14"/>
-    <row r="21" spans="1:14"/>
-    <row r="22" spans="1:14"/>
-    <row r="23" spans="1:14"/>
-    <row r="24" spans="1:14"/>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
+      <c r="N53" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>12</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14"/>
-    <row r="36" spans="1:14"/>
-    <row r="37" spans="1:14"/>
-    <row r="38" spans="1:14"/>
-    <row r="39" spans="1:14"/>
-    <row r="40" spans="1:14">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14"/>
-    <row r="51" spans="1:14"/>
-    <row r="52" spans="1:14"/>
-    <row r="53" spans="1:14"/>
-    <row r="54" spans="1:14">
-      <c r="A54" t="s">
-        <v>37</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_statistics.xlsx
+++ b/model_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Projects\Quant\Quant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell-pc\Quant\Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571FAAEB-5A56-4E77-8055-A21BB704FF53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{621E11B1-B970-4649-933C-1EDEE088AEC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6108" activeTab="1" xr2:uid="{0AC0E055-5388-486B-B3C3-0690848CE20F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6105" activeTab="1" xr2:uid="{0AC0E055-5388-486B-B3C3-0690848CE20F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="164">
   <si>
     <t>2011-02-28 2017-11-30</t>
   </si>
@@ -1361,17 +1361,422 @@
   </si>
   <si>
     <t>15 (0.15276547739909122, 0.18772032902467695, 0.08431528370265824, 0.2577639751552798, 0.000381533765738018)</t>
+  </si>
+  <si>
+    <t>11201 (0.07432472402130534, 0.053329404832056726, 0.08474000803796201, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>188 (0.1183288936592238, 0.07582417582417578, 0.13432780325612234, 0.6894409937888195, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>57 (0.10727390117826106, 0.06440443213296376, 0.12305920517900608, 0.6200119118522929, -0.04425287356321839)</t>
+  </si>
+  <si>
+    <t>17 (0.15709517166514303, 0.1732329084588644, 0.10098092876456212, 0.3536363636363635, -0.011857707509881354)</t>
+  </si>
+  <si>
+    <t>22 (0.12679912936315033, 0.09723409605230082, 0.10869272571888561, 0.3600000000000001, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>20 (0.19361023013508377, 0.17443465093198995, 0.12854265462070363, 0.41914618369987067, -0.024699176694110148)</t>
+  </si>
+  <si>
+    <t>22 (0.1392066885764529, 0.15038846401903716, 0.09547004936804449, 0.28227085315572475, 0.0010541110330288816)</t>
+  </si>
+  <si>
+    <t>20 (0.12191767865984493, 0.11386379652764433, 0.1010519482519681, 0.44268774703557323, 0.000381533765738018)</t>
+  </si>
+  <si>
+    <t>5 (0.1634819897208432, 0.19774774774774784, 0.09756786192400262, 0.2461538461538464, 0.020000000000000018)</t>
+  </si>
+  <si>
+    <t>2 (-0.02040995887945224, -0.02040995887945224, 0.006926911972692427, -0.015511892450879139, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <r>
+      <t>xgb.XGBClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>scale_pos_weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max_depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>random_state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)}</t>
+    </r>
+  </si>
+  <si>
+    <t>108 0.14453605666409802 0.13726388553974755 0.10909890447618881 0.44268774703557323 -0.0774077407740773</t>
+  </si>
+  <si>
+    <t>10933 (0.07328927411177581, 0.05249679897567239, 0.08414387343322158, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>362 (0.12522889967167147, 0.08827270920294172, 0.12226536079540987, 0.6894409937888195, -0.062251392203659495)</t>
+  </si>
+  <si>
+    <t>106 (0.11938740682947767, 0.09677348321486212, 0.1142745122512474, 0.4775881683731511, -0.019073569482289)</t>
+  </si>
+  <si>
+    <t>50 (0.09968182086649609, 0.09935400188204191, 0.09447520969653395, 0.3903675538656528, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>26 (0.12522791145465095, 0.11975058578109088, 0.08552504983521449, 0.3600000000000001, -0.041010194624652385)</t>
+  </si>
+  <si>
+    <t>27 (0.13225337270369983, 0.133546581367453, 0.08586188898140265, 0.28227085315572475, -0.011857707509881354)</t>
+  </si>
+  <si>
+    <t>25 (0.13146008678872925, 0.1469503546099291, 0.09407537138727104, 0.2811594202898551, -0.006669006669006605)</t>
+  </si>
+  <si>
+    <t>18 (0.07455040779272508, 0.06198921216083686, 0.06819694892295367, 0.20535714285714302, -0.024699176694110148)</t>
+  </si>
+  <si>
+    <t>4 (0.20089104799271346, 0.14159728535296712, 0.16973518746728455, 0.44268774703557323, 0.07768187422934636)</t>
+  </si>
+  <si>
+    <t>3 (-0.0069399725863014865, -0.015511892450879139, 0.023839308860613435, 0.020000000000000018, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <r>
+      <t>xgb.XGBClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max_depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>10857 (0.07297658368737855, 0.052407932011331315, 0.08343670528660406, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>429 (0.12307642410672216, 0.0828263002944063, 0.1308149704709059, 0.6894409937888195, -0.051118210862619695)</t>
+  </si>
+  <si>
+    <t>112 (0.11109965367044175, 0.09751021202100774, 0.09659626367790501, 0.41914618369987067, -0.04425287356321839)</t>
+  </si>
+  <si>
+    <t>50 (0.12699174333447455, 0.13559543861851908, 0.10242380825108094, 0.3903675538656528, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>24 (0.10144066320499873, 0.0943676504598745, 0.09442060557435977, 0.3600000000000001, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>42 (0.15059962246129835, 0.17732740876664577, 0.08011061998300889, 0.28227085315572475, -0.011857707509881354)</t>
+  </si>
+  <si>
+    <t>28 (0.10063891924367512, 0.09583344924573967, 0.07859875290947642, 0.2811594202898551, -0.024699176694110148)</t>
+  </si>
+  <si>
+    <t>8 (0.0728439019500349, 0.06793541243340473, 0.06254409266755492, 0.1952277657266812, -0.0014634146341463428)</t>
+  </si>
+  <si>
+    <t>1 (0.44268774703557323, 0.44268774703557323, nan, 0.44268774703557323, 0.44268774703557323)</t>
+  </si>
+  <si>
+    <r>
+      <t>xgb.XGBClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1413,10 +1818,34 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFAA4926"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6897BB"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCC7832"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1447,7 +1876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1467,6 +1896,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1785,38 +2220,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296F8B7A-5696-407A-BE4B-C1C38C1030FB}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:N77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1824,7 +2259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1832,7 +2267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1840,7 +2275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1848,7 +2283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1856,7 +2291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1864,27 +2299,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1892,7 +2327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1900,7 +2335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1908,7 +2343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1916,7 +2351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1924,7 +2359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1932,7 +2367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1940,22 +2375,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1963,7 +2398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1971,7 +2406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1979,7 +2414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1987,7 +2422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -1995,7 +2430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -2003,27 +2438,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -2031,7 +2466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -2039,7 +2474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2047,7 +2482,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -2055,7 +2490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -2063,7 +2498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -2071,22 +2506,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -2100,35 +2535,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A384DD-462D-4622-900F-61FD572F04F9}">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="N143" sqref="N143:N147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -2136,7 +2571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2144,7 +2579,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -2152,7 +2587,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2160,7 +2595,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2168,7 +2603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2176,27 +2611,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2204,7 +2639,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -2212,7 +2647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -2220,7 +2655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2228,7 +2663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -2236,7 +2671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2244,7 +2679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -2252,22 +2687,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -2275,7 +2710,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2283,7 +2718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -2291,7 +2726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -2299,7 +2734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2307,7 +2742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -2315,7 +2750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -2323,22 +2758,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2346,7 +2781,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2354,7 +2789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2362,7 +2797,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2370,7 +2805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -2378,7 +2813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2386,7 +2821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -2394,22 +2829,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -2417,7 +2852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -2425,7 +2860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>117</v>
       </c>
@@ -2433,7 +2868,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -2441,7 +2876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -2449,7 +2884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -2457,7 +2892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -2465,22 +2900,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -2488,7 +2923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -2496,7 +2931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -2504,7 +2939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -2512,7 +2947,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -2520,7 +2955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -2528,7 +2963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>112</v>
       </c>
@@ -2536,27 +2971,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -2564,7 +2999,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -2572,7 +3007,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -2580,7 +3015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -2588,7 +3023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2596,7 +3031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -2604,7 +3039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -2612,23 +3047,233 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>125</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>126</v>
+      </c>
+      <c r="N112" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" t="s">
+        <v>128</v>
+      </c>
+      <c r="N114" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="s">
+        <v>129</v>
+      </c>
+      <c r="N115" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="s">
+        <v>130</v>
+      </c>
+      <c r="N116" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" t="s">
+        <v>141</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" t="s">
+        <v>142</v>
+      </c>
+      <c r="N128" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" t="s">
+        <v>143</v>
+      </c>
+      <c r="N129" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" t="s">
+        <v>144</v>
+      </c>
+      <c r="N130" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" t="s">
+        <v>145</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" t="s">
+        <v>146</v>
+      </c>
+      <c r="N132" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="N143" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" t="s">
+        <v>156</v>
+      </c>
+      <c r="N144" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="N145" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="N146" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" t="s">
+        <v>159</v>
+      </c>
+      <c r="N147" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/model_statistics.xlsx
+++ b/model_statistics.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell-pc\Quant\Quant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Projects\Quant\Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{621E11B1-B970-4649-933C-1EDEE088AEC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D67C54D-9607-4200-AA81-19989E1008FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6105" activeTab="1" xr2:uid="{0AC0E055-5388-486B-B3C3-0690848CE20F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6108" firstSheet="3" activeTab="7" xr2:uid="{0AC0E055-5388-486B-B3C3-0690848CE20F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="lgbm_n_estimators" sheetId="3" r:id="rId4"/>
+    <sheet name="lgbm_num_leaves" sheetId="5" r:id="rId5"/>
+    <sheet name="lgbm_num_leaves_n_estimators" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="568">
   <si>
     <t>2011-02-28 2017-11-30</t>
   </si>
@@ -1401,6 +1407,7 @@
         <sz val="9"/>
         <color rgb="FFAA4926"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n_estimators</t>
@@ -1410,6 +1417,7 @@
         <sz val="9"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -1419,6 +1427,7 @@
         <sz val="9"/>
         <color rgb="FF6897BB"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>300</t>
@@ -1428,6 +1437,7 @@
         <sz val="9"/>
         <color rgb="FFCC7832"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -1442,6 +1452,7 @@
         <sz val="9"/>
         <color rgb="FFAA4926"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>scale_pos_weight</t>
@@ -1451,6 +1462,7 @@
         <sz val="9"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -1460,6 +1472,7 @@
         <sz val="9"/>
         <color rgb="FF6897BB"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1469,6 +1482,7 @@
         <sz val="9"/>
         <color rgb="FFCC7832"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1483,6 +1497,7 @@
         <sz val="9"/>
         <color rgb="FFAA4926"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>max_depth</t>
@@ -1492,6 +1507,7 @@
         <sz val="9"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -1501,6 +1517,7 @@
         <sz val="9"/>
         <color rgb="FF6897BB"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -1510,6 +1527,7 @@
         <sz val="9"/>
         <color rgb="FFCC7832"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1524,6 +1542,7 @@
         <sz val="9"/>
         <color rgb="FFAA4926"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>random_state</t>
@@ -1533,6 +1552,7 @@
         <sz val="9"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -1542,6 +1562,7 @@
         <sz val="9"/>
         <color rgb="FF6897BB"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1551,6 +1572,7 @@
         <sz val="9"/>
         <color rgb="FFCC7832"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -1565,6 +1587,7 @@
         <sz val="9"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)}</t>
@@ -1612,6 +1635,7 @@
         <sz val="9"/>
         <color rgb="FFAA4926"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n_estimators</t>
@@ -1621,6 +1645,7 @@
         <sz val="9"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -1630,6 +1655,7 @@
         <sz val="9"/>
         <color rgb="FF6897BB"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>200</t>
@@ -1639,6 +1665,7 @@
         <sz val="9"/>
         <color rgb="FFCC7832"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -1653,6 +1680,7 @@
         <sz val="9"/>
         <color rgb="FFAA4926"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>max_depth</t>
@@ -1662,6 +1690,7 @@
         <sz val="9"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -1671,6 +1700,7 @@
         <sz val="9"/>
         <color rgb="FF6897BB"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -1680,6 +1710,7 @@
         <sz val="9"/>
         <color rgb="FFCC7832"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1694,6 +1725,7 @@
         <sz val="9"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1735,6 +1767,7 @@
         <sz val="9"/>
         <color rgb="FFAA4926"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n_estimators</t>
@@ -1744,6 +1777,7 @@
         <sz val="9"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -1753,6 +1787,7 @@
         <sz val="9"/>
         <color rgb="FF6897BB"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>150</t>
@@ -1762,9 +1797,2503 @@
         <sz val="9"/>
         <color rgb="FFCC7832"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>4189 (0.04964378681543599, 0.032786885245901676, 0.06168451793712102, 0.44984984984985, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>3323 (0.07605145017785235, 0.05889328063241117, 0.08000171684426986, 0.8043636363636364, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>1563 (0.08917678626202752, 0.06887795588001899, 0.09206020981262927, 0.7545388525780681, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>850 (0.09417573832516078, 0.07077818385354939, 0.10638746139865646, 0.8832684824902723, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>508 (0.10432163968836092, 0.08810270942599341, 0.10544838600012305, 0.8724528301886791, -0.07688532635367262)</t>
+  </si>
+  <si>
+    <t>383 (0.1211792113907003, 0.10294117647058831, 0.10934122430589079, 0.6200119118522929, -0.06410648714810285)</t>
+  </si>
+  <si>
+    <t>254 (0.12106966167975197, 0.10076903763675693, 0.11629125377732347, 0.6894409937888195, -0.049707602339181145)</t>
+  </si>
+  <si>
+    <t>199 (0.13595547077364242, 0.12481203007518804, 0.12296701017759643, 0.6316736652669463, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>154 (0.12821340601194853, 0.11807365023474181, 0.10781777297669047, 0.4766917293233084, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>131 (0.14819356978535306, 0.1499535747446612, 0.10469380290775324, 0.44268774703557323, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num_leaves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max_depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>3037 (0.04324079126005071, 0.02680067001675024, 0.05443820450806141, 0.40542133176193307, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>3976 (0.07139543914241113, 0.05356103442541171, 0.07512833201928186, 0.6877551020408164, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>2024 (0.08694133304779114, 0.06850176073998593, 0.0909421134355256, 0.8043636363636364, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1016 (0.10115305812042581, 0.07670947717364718, 0.10875427083847096, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>519 (0.11096982851562458, 0.09064748201438833, 0.11513831531992821, 0.8724528301886791, -0.0958990536277603)</t>
+  </si>
+  <si>
+    <t>343 (0.12595946592196988, 0.10681293302540418, 0.11944658098317759, 0.6894409937888195, -0.07688532635367262)</t>
+  </si>
+  <si>
+    <t>265 (0.12176600475262303, 0.09766454352441611, 0.11381359004302091, 0.6316736652669463, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>193 (0.12700542592004183, 0.12134146341463414, 0.10598868816151659, 0.5292792792792795, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>134 (0.12668747711432748, 0.10965118566090004, 0.09877614466663183, 0.41193386053199155, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>47 (0.1701416984084795, 0.1818690542809176, 0.10688545361159871, 0.44268774703557323, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>1949 (0.03563187753072765, 0.016609880749574035, 0.05010784822224173, 0.40542133176193307, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>4445 (0.06618800336319064, 0.04953271028037376, 0.06929630197057327, 0.6666666666666665, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>2656 (0.08475338359086214, 0.0672124270428015, 0.08812736239044881, 0.7545388525780681, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1117 (0.1076437486963922, 0.07933728045048793, 0.11526007378136567, 0.8832684824902723, -0.09074074074074079)</t>
+  </si>
+  <si>
+    <t>544 (0.11230267672142348, 0.09613517550410766, 0.1071862556382741, 0.8724528301886791, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>322 (0.1377196190946725, 0.11393623985336476, 0.12990557542904166, 0.6894409937888195, -0.07688532635367262)</t>
+  </si>
+  <si>
+    <t>232 (0.1142901856604131, 0.09997314274032232, 0.10977130924879032, 0.4766917293233084, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>186 (0.10755501004160158, 0.10006361605676795, 0.09645040258570875, 0.41193386053199155, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>96 (0.15324724271867196, 0.1552566378870167, 0.10167472268809084, 0.44268774703557323, -0.012510088781275353)</t>
+  </si>
+  <si>
+    <t>7 (0.11652145180058927, 0.14857954545454533, 0.09556505352483015, 0.20291579886938393, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>3657 (0.047392578820342736, 0.03007518796992481, 0.0600277721131143, 0.44874476987447687, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>3548 (0.07372905265171513, 0.056351688698941804, 0.0768377412667896, 0.7004797806716929, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>1829 (0.09022065905365237, 0.06875543951261975, 0.09529738241034437, 0.8043636363636364, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>900 (0.09154804633795695, 0.07067369733017859, 0.10086874309677811, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>524 (0.10380420839003127, 0.08882322946352894, 0.1048451470584993, 0.8724528301886791, -0.07688532635367262)</t>
+  </si>
+  <si>
+    <t>356 (0.12707339600059547, 0.10246315364425596, 0.12226817779493436, 0.6894409937888195, -0.057931034482758714)</t>
+  </si>
+  <si>
+    <t>272 (0.10853410933214806, 0.0895514780835881, 0.10379343091919017, 0.5981818181818184, -0.06410648714810285)</t>
+  </si>
+  <si>
+    <t>208 (0.13839327337120547, 0.1334657746895328, 0.11864770643324432, 0.6316736652669463, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>155 (0.12841094339468878, 0.1099099099099099, 0.10803124613951956, 0.5292792792792795, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>105 (0.15549615801493988, 0.1686143572621035, 0.1066652712325356, 0.44268774703557323, -0.04652936689549958)</t>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>2018-01-01 2011-02-27 2009-02-07</t>
+  </si>
+  <si>
+    <t>start: 2009-02-07</t>
+  </si>
+  <si>
+    <t>min_date 2009-02-09</t>
+  </si>
+  <si>
+    <t>count stck 58</t>
+  </si>
+  <si>
+    <t>(119802, 143)</t>
+  </si>
+  <si>
+    <t>(2389, 395) 2389</t>
+  </si>
+  <si>
+    <t>(119802, 538)</t>
+  </si>
+  <si>
+    <t>df_all: (99573, 538)</t>
+  </si>
+  <si>
+    <t>y&lt;-0.5: 0</t>
+  </si>
+  <si>
+    <t>-0.50&lt;=y&lt;-0.40: 1</t>
+  </si>
+  <si>
+    <t>-0.40&lt;=y&lt;-0.30: 0</t>
+  </si>
+  <si>
+    <t>-0.30&lt;=y&lt;-0.20: 2</t>
+  </si>
+  <si>
+    <t>-0.20&lt;=y&lt;-0.10: 49</t>
+  </si>
+  <si>
+    <t>-0.10&lt;=y&lt;0.00: 6589</t>
+  </si>
+  <si>
+    <t>0.00&lt;=y&lt;0.10: 54713</t>
+  </si>
+  <si>
+    <t>0.10&lt;=y&lt;0.20: 23622</t>
+  </si>
+  <si>
+    <t>0.20&lt;=y&lt;0.30: 7906</t>
+  </si>
+  <si>
+    <t>0.30&lt;=y&lt;0.40: 2857</t>
+  </si>
+  <si>
+    <t>0.40&lt;=y&lt;0.50: 1189</t>
+  </si>
+  <si>
+    <t>y&gt;0.5 1483</t>
+  </si>
+  <si>
+    <t>mean: 0.10512079369721224 median: 0.07169344870210126 std: 0.2097293200331299</t>
+  </si>
+  <si>
+    <t>过滤涨停项或停牌（最高价=最低价）： 5408</t>
+  </si>
+  <si>
+    <t>-0.50&lt;=y&lt;-0.40: 0</t>
+  </si>
+  <si>
+    <t>-0.30&lt;=y&lt;-0.20: 0</t>
+  </si>
+  <si>
+    <t>-0.20&lt;=y&lt;-0.10: 45</t>
+  </si>
+  <si>
+    <t>-0.10&lt;=y&lt;0.00: 6521</t>
+  </si>
+  <si>
+    <t>0.00&lt;=y&lt;0.10: 56321</t>
+  </si>
+  <si>
+    <t>0.10&lt;=y&lt;0.20: 23167</t>
+  </si>
+  <si>
+    <t>0.20&lt;=y&lt;0.30: 7618</t>
+  </si>
+  <si>
+    <t>0.30&lt;=y&lt;0.40: 2634</t>
+  </si>
+  <si>
+    <t>0.40&lt;=y&lt;0.50: 1056</t>
+  </si>
+  <si>
+    <t>y&gt;0.5 1049</t>
+  </si>
+  <si>
+    <t>mean: 0.09602441787210458 median: 0.06809229037704001 std: 0.10939949226881739</t>
+  </si>
+  <si>
+    <t>y&lt;-0.5: 259</t>
+  </si>
+  <si>
+    <t>-0.50&lt;=y&lt;-0.40: 449</t>
+  </si>
+  <si>
+    <t>-0.40&lt;=y&lt;-0.30: 1373</t>
+  </si>
+  <si>
+    <t>-0.30&lt;=y&lt;-0.20: 4773</t>
+  </si>
+  <si>
+    <t>-0.20&lt;=y&lt;-0.10: 22424</t>
+  </si>
+  <si>
+    <t>-0.10&lt;=y&lt;0.00: 63870</t>
+  </si>
+  <si>
+    <t>0.00&lt;=y&lt;0.10: 5265</t>
+  </si>
+  <si>
+    <t>0.10&lt;=y&lt;0.20: 0</t>
+  </si>
+  <si>
+    <t>0.20&lt;=y&lt;0.30: 0</t>
+  </si>
+  <si>
+    <t>0.30&lt;=y&lt;0.40: 0</t>
+  </si>
+  <si>
+    <t>0.40&lt;=y&lt;0.50: 0</t>
+  </si>
+  <si>
+    <t>y&gt;0.5 0</t>
+  </si>
+  <si>
+    <t>mean: -0.07977053948760486 median: -0.05882352941176483 std: 0.07881259561400997</t>
+  </si>
+  <si>
+    <t>y&lt;-0.5: 187</t>
+  </si>
+  <si>
+    <t>-0.50&lt;=y&lt;-0.40: 373</t>
+  </si>
+  <si>
+    <t>-0.40&lt;=y&lt;-0.30: 1281</t>
+  </si>
+  <si>
+    <t>-0.30&lt;=y&lt;-0.20: 4608</t>
+  </si>
+  <si>
+    <t>-0.20&lt;=y&lt;-0.10: 21963</t>
+  </si>
+  <si>
+    <t>-0.10&lt;=y&lt;0.00: 63145</t>
+  </si>
+  <si>
+    <t>0.00&lt;=y&lt;0.10: 6856</t>
+  </si>
+  <si>
+    <t>mean: -0.07717436043985301 median: -0.0567685589519652 std: 0.07601330776604871</t>
+  </si>
+  <si>
+    <t>y&lt;-0.5: 1</t>
+  </si>
+  <si>
+    <t>-0.40&lt;=y&lt;-0.30: 1</t>
+  </si>
+  <si>
+    <t>-0.30&lt;=y&lt;-0.20: 5</t>
+  </si>
+  <si>
+    <t>-0.20&lt;=y&lt;-0.10: 105</t>
+  </si>
+  <si>
+    <t>-0.10&lt;=y&lt;0.00: 13746</t>
+  </si>
+  <si>
+    <t>0.00&lt;=y&lt;0.10: 73922</t>
+  </si>
+  <si>
+    <t>0.10&lt;=y&lt;0.20: 9446</t>
+  </si>
+  <si>
+    <t>0.20&lt;=y&lt;0.30: 1524</t>
+  </si>
+  <si>
+    <t>0.30&lt;=y&lt;0.40: 361</t>
+  </si>
+  <si>
+    <t>0.40&lt;=y&lt;0.50: 141</t>
+  </si>
+  <si>
+    <t>y&gt;0.5 30</t>
+  </si>
+  <si>
+    <t>mean: 0.043285505179587264 median: 0.02985074626865658 std: 0.12901851455671642</t>
+  </si>
+  <si>
+    <t>-0.30&lt;=y&lt;-0.20: 4</t>
+  </si>
+  <si>
+    <t>-0.20&lt;=y&lt;-0.10: 99</t>
+  </si>
+  <si>
+    <t>-0.10&lt;=y&lt;0.00: 13641</t>
+  </si>
+  <si>
+    <t>0.00&lt;=y&lt;0.10: 74624</t>
+  </si>
+  <si>
+    <t>0.10&lt;=y&lt;0.20: 9196</t>
+  </si>
+  <si>
+    <t>0.20&lt;=y&lt;0.30: 1353</t>
+  </si>
+  <si>
+    <t>0.30&lt;=y&lt;0.40: 286</t>
+  </si>
+  <si>
+    <t>0.40&lt;=y&lt;0.50: 66</t>
+  </si>
+  <si>
+    <t>y&gt;0.5 14</t>
+  </si>
+  <si>
+    <t>mean: 0.040788955311571055 median: 0.02887139107611536 std: 0.05356288397582179</t>
+  </si>
+  <si>
+    <t>y&lt;-0.5: 8</t>
+  </si>
+  <si>
+    <t>-0.50&lt;=y&lt;-0.40: 11</t>
+  </si>
+  <si>
+    <t>-0.40&lt;=y&lt;-0.30: 138</t>
+  </si>
+  <si>
+    <t>-0.30&lt;=y&lt;-0.20: 792</t>
+  </si>
+  <si>
+    <t>-0.20&lt;=y&lt;-0.10: 7292</t>
+  </si>
+  <si>
+    <t>-0.10&lt;=y&lt;0.00: 83542</t>
+  </si>
+  <si>
+    <t>0.00&lt;=y&lt;0.10: 7500</t>
+  </si>
+  <si>
+    <t>mean: -0.04039733274113943 median: -0.028132992327365547 std: 0.042994759228890206</t>
+  </si>
+  <si>
+    <t>-0.50&lt;=y&lt;-0.40: 7</t>
+  </si>
+  <si>
+    <t>-0.40&lt;=y&lt;-0.30: 121</t>
+  </si>
+  <si>
+    <t>-0.30&lt;=y&lt;-0.20: 767</t>
+  </si>
+  <si>
+    <t>-0.20&lt;=y&lt;-0.10: 7121</t>
+  </si>
+  <si>
+    <t>-0.10&lt;=y&lt;0.00: 82978</t>
+  </si>
+  <si>
+    <t>0.00&lt;=y&lt;0.10: 8289</t>
+  </si>
+  <si>
+    <t>mean: -0.03970314220265873 median: -0.027626459143968995 std: 0.04197491124530424</t>
+  </si>
+  <si>
+    <t>(99573, 521) (99573, 4) Index(['y_l_rise', 'y_l_decline', 'y_s_rise', 'y_s_decline'], dtype='object')</t>
+  </si>
+  <si>
+    <t>2562 (0.03965814258576609, 0.022498482372597217, 0.0530933430949245, 0.4364772389169891, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>4202 (0.069248715643908, 0.05347970203641861, 0.07116755062286742, 0.6877551020408164, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>2301 (0.08665480119441459, 0.0674157303370786, 0.09121648367602443, 0.8043636363636364, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1013 (0.10492138153125496, 0.07824143070044709, 0.11213871545293824, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>524 (0.11417550396341866, 0.09373158503491164, 0.1126682431098789, 0.8724528301886791, -0.05083612040133778)</t>
+  </si>
+  <si>
+    <t>354 (0.12134106786014788, 0.09396918837675339, 0.12453321110920575, 0.6894409937888195, -0.07688532635367262)</t>
+  </si>
+  <si>
+    <t>257 (0.11422613385330353, 0.09766454352441611, 0.10649612087062979, 0.5981818181818184, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>176 (0.12658191223829734, 0.11963941646022569, 0.1073697435710313, 0.5292792792792795, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>136 (0.14130483654778028, 0.11989828203461683, 0.10570698763683771, 0.44268774703557323, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>29 (0.1579847570156719, 0.17586063873911262, 0.07894766968442984, 0.2981691368788142, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <t>3285 (0.04532708927722531, 0.027896995708154515, 0.057353467905094005, 0.40542133176193307, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>3733 (0.07202775824692265, 0.053763440860215006, 0.07609288191755223, 0.6877551020408164, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>1965 (0.08926168765606315, 0.07007439404847626, 0.09258707680738602, 0.8043636363636364, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>980 (0.09412403120837992, 0.06895993188240779, 0.10579032098163445, 0.8832684824902723, -0.0958990536277603)</t>
+  </si>
+  <si>
+    <t>529 (0.1081883199305012, 0.09064748201438833, 0.10779676838519467, 0.8724528301886791, -0.09074074074074079)</t>
+  </si>
+  <si>
+    <t>369 (0.12195188623840411, 0.10006414368184724, 0.11805927232248478, 0.6894409937888195, -0.07688532635367262)</t>
+  </si>
+  <si>
+    <t>265 (0.11495754636158526, 0.09763560500695401, 0.10903845969262052, 0.6316736652669463, -0.057931034482758714)</t>
+  </si>
+  <si>
+    <t>196 (0.13672142516069788, 0.12043128365536904, 0.12142741968613735, 0.5292792792792795, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>149 (0.11996565616933143, 0.10979228486646875, 0.09196817206544135, 0.41193386053199155, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>83 (0.16498549958893816, 0.17446996466431108, 0.10500794194986701, 0.44268774703557323, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>125</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>2132 (0.03562945461416919, 0.017842449651281123, 0.0508614216628628, 0.40542133176193307, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>4016 (0.0655571779883889, 0.04930835711893866, 0.06892276285218323, 0.604494382022472, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>2607 (0.08527223649067574, 0.06564364876385342, 0.08949090559205532, 0.8043636363636364, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1201 (0.1034021575994347, 0.0791203537707661, 0.11229528917189334, 0.8832684824902723, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>619 (0.10208710632243964, 0.08072988664639213, 0.09842370675942183, 0.6227692307692307, -0.0958990536277603)</t>
+  </si>
+  <si>
+    <t>378 (0.11737126479671166, 0.10789473684210527, 0.10443607129646194, 0.6200119118522929, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>247 (0.12254199688137622, 0.1071428571428572, 0.10640190777270823, 0.6894409937888195, -0.06410648714810285)</t>
+  </si>
+  <si>
+    <t>172 (0.1436053765729205, 0.14563671982441884, 0.11622235136452129, 0.6316736652669463, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>140 (0.15044063970331253, 0.13726388553974755, 0.12079750403632498, 0.49923664122137423, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>42 (0.17055457012177136, 0.18441911818976064, 0.10636002585202109, 0.44268774703557323, -0.015511892450879139)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num_leaves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2676 (0.04353242998286693, 0.02521114693080584, 0.058190514709049866, 0.6666666666666665, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>3889 (0.07064217803802941, 0.053003533568904526, 0.07608360458614685, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>2408 (0.08369242254228774, 0.06476293583824233, 0.08829868442661527, 0.8043636363636364, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1097 (0.10220592329549931, 0.07513513513513503, 0.10907674275373452, 0.6727145847871598, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>525 (0.10010105954310708, 0.07368859283930052, 0.106804426264592, 0.8724528301886791, -0.09074074074074079)</t>
+  </si>
+  <si>
+    <t>369 (0.11424672666265943, 0.09665427509293689, 0.11074069150474396, 0.8832684824902723, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>245 (0.13231632197534446, 0.1172638436482083, 0.11608007210179058, 0.6316736652669463, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>183 (0.1254928103139344, 0.12297989751675198, 0.08865676827743807, 0.41193386053199155, -0.03302961275626415)</t>
+  </si>
+  <si>
+    <t>108 (0.1331222125042052, 0.11353651094989492, 0.11248829426019406, 0.44268774703557323, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>54 (0.1322245810352371, 0.14337266099555168, 0.09692334306732543, 0.3536363636363635, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num_leaves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2219 (0.03715634121842208, 0.019323671497584627, 0.05090787462835925, 0.40542133176193307, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>4395 (0.06860073820987868, 0.05082478823004899, 0.07376240498154964, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>2593 (0.0863476492101003, 0.06616181745715433, 0.09232425880617846, 0.8724528301886791, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1049 (0.10460158601019699, 0.08045977011494254, 0.10851871580690078, 0.8832684824902723, -0.0958990536277603)</t>
+  </si>
+  <si>
+    <t>496 (0.1087446726380845, 0.08482956416961673, 0.109261705811157, 0.6200119118522929, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>280 (0.11225961031192806, 0.0963505803659257, 0.10731734407374176, 0.6316736652669463, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>159 (0.1308679238988174, 0.12206823027718539, 0.1066822894786979, 0.6894409937888195, -0.04652936689549958)</t>
+  </si>
+  <si>
+    <t>163 (0.13827733487854985, 0.13745704467353947, 0.10691438901059945, 0.49923664122137423, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>144 (0.14234332785702472, 0.13709738537324734, 0.10295804347406494, 0.4766917293233084, -0.03302961275626415)</t>
+  </si>
+  <si>
+    <t>56 (0.17303920218785954, 0.17150684723088616, 0.10245567091405912, 0.44268774703557323, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num_leaves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1740 (0.032206191982652725, 0.011976065080949616, 0.04855410206450616, 0.40542133176193307, -0.06030150753768837)</t>
+  </si>
+  <si>
+    <t>4418 (0.06524875151379751, 0.04933864883311201, 0.07027089653742884, 0.7545388525780681, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>3069 (0.08759900660958549, 0.06880843922320778, 0.08898554462259102, 0.8043636363636364, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1158 (0.10862349667524086, 0.08154588870431911, 0.11316239488019805, 0.8832684824902723, -0.09074074074074079)</t>
+  </si>
+  <si>
+    <t>519 (0.10577194789622237, 0.0888888888888888, 0.10706473308938166, 0.6200119118522929, -0.07688532635367262)</t>
+  </si>
+  <si>
+    <t>245 (0.11110437077698701, 0.08917197452229297, 0.11161428688979115, 0.6894409937888195, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>181 (0.12156000174517648, 0.11371629542790163, 0.11384094757797049, 0.445267489711934, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>130 (0.1489072721385202, 0.13912009512485135, 0.11571248324630647, 0.49923664122137423, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>87 (0.14976760854713453, 0.13979496738117425, 0.10207680972963132, 0.44268774703557323, -0.043109540636042554)</t>
+  </si>
+  <si>
+    <t>7 (0.14859344985036957, 0.15628299894403375, 0.10522828394596619, 0.2981691368788142, -0.0018744142455482393)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num_leaves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2188 (0.03781357506967857, 0.019245785448284147, 0.052048192046910885, 0.42460902921215693, -0.06030150753768837)</t>
+  </si>
+  <si>
+    <t>3951 (0.0691913348666073, 0.04876033057851248, 0.08063687323401712, 0.8043636363636364, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>2781 (0.08471022992302978, 0.06672171758876977, 0.08638328556971779, 0.8832684824902723, -0.09142053445850917)</t>
+  </si>
+  <si>
+    <t>1195 (0.09378761866744115, 0.07665805340223963, 0.09430816367434847, 0.8724528301886791, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>624 (0.10326346356765678, 0.07899142224681788, 0.10463401026911745, 0.6616257088846884, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>291 (0.12348416061801135, 0.10411764705882343, 0.11491435771051302, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>242 (0.1307904914342243, 0.12175216492238783, 0.11009016704776436, 0.6316736652669463, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>172 (0.14196411792175734, 0.12519983289235492, 0.11206565117465024, 0.49923664122137423, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>87 (0.13750260853197954, 0.13294375456537622, 0.09150787618615074, 0.44268774703557323, -0.024699176694110148)</t>
+  </si>
+  <si>
+    <t>23 (0.18752200284929083, 0.20535714285714302, 0.11047137370053965, 0.3536363636363635, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <r>
+      <t>threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.15</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num_leaves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2279 (0.03706129382256307, 0.019906323185011843, 0.052830975971646404, 0.4937238493723848, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>3997 (0.0687809771011534, 0.05138339920948631, 0.07617822909353747, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>2589 (0.08304433713054801, 0.06640106241699861, 0.08544811988561368, 0.8043636363636364, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1247 (0.10502957494103125, 0.08311688311688314, 0.10420549327264825, 0.8724528301886791, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>584 (0.11162548129728356, 0.08708880853690804, 0.11132951109345267, 0.8832684824902723, -0.07688532635367262)</t>
+  </si>
+  <si>
+    <t>312 (0.10491301480016747, 0.09198289853385933, 0.1083416672213884, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>194 (0.11527434097468936, 0.10737582398338907, 0.100393664298165, 0.4346405228758168, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>151 (0.13573031248099265, 0.11371629542790163, 0.11436015858760262, 0.49923664122137423, -0.04652936689549958)</t>
+  </si>
+  <si>
+    <t>146 (0.1473414780733921, 0.14005206157405914, 0.10954132207309285, 0.49695121951219523, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>55 (0.1606391373158635, 0.15875486381322945, 0.0996337289905647, 0.3600000000000001, -0.043109540636042554)</t>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3129 (0.04208500087199613, 0.025465230166503483, 0.05535264259496376, 0.5866666666666664, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>4003 (0.07513205403122257, 0.05600000000000005, 0.07909905923136795, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>2096 (0.08856652695998286, 0.069333959496365, 0.09279443313520869, 0.8043636363636364, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>918 (0.09805077682850168, 0.07617372880583995, 0.10453630198282095, 0.8724528301886791, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>477 (0.10314906499599776, 0.07834482758620709, 0.1111200156108619, 0.8832684824902723, -0.05391527599486512)</t>
+  </si>
+  <si>
+    <t>270 (0.1101152529925409, 0.08890848512602056, 0.11072775334362635, 0.6316736652669463, -0.07688532635367262)</t>
+  </si>
+  <si>
+    <t>218 (0.12441077279487792, 0.10710628220441332, 0.11011402098838821, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>184 (0.13266202844485936, 0.12871722270468478, 0.10376327618574974, 0.445267489711934, -0.04541131716595359)</t>
+  </si>
+  <si>
+    <t>144 (0.14042010715072406, 0.13033781490972496, 0.11381573815931727, 0.49923664122137423, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>115 (0.15402486227297163, 0.15875486381322945, 0.09801702559066507, 0.44268774703557323, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <t>2753 (0.04104086166869187, 0.02402402402402415, 0.0528636803906467, 0.40542133176193307, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>4230 (0.0729133062850962, 0.0534367943664128, 0.07920135129963804, 0.7545388525780681, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>2253 (0.0865143347051985, 0.0682119205298013, 0.08961882253363117, 0.8043636363636364, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>978 (0.09926247875604703, 0.0739765049867892, 0.11015095316908534, 0.8832684824902723, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>472 (0.1070750236505903, 0.08852620937824607, 0.10763133057173681, 0.6200119118522929, -0.05391527599486512)</t>
+  </si>
+  <si>
+    <t>277 (0.11612009003925158, 0.08685766257389727, 0.11649630669008422, 0.6894409937888195, -0.07688532635367262)</t>
+  </si>
+  <si>
+    <t>213 (0.12133950936027935, 0.1099099099099099, 0.09677106817476766, 0.445267489711934, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>148 (0.13390876079579725, 0.12477004694477312, 0.11082742053654725, 0.49923664122137423, -0.05083612040133778)</t>
+  </si>
+  <si>
+    <t>140 (0.14149171645226916, 0.13769403957814907, 0.10381168680151744, 0.49695121951219523, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>90 (0.16555517427311503, 0.17021026233149228, 0.0983588914086129, 0.44268774703557323, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1538 (0.027858986520168202, 0.006751078349972683, 0.043404622098316414, 0.40542133176193307, -0.06030150753768837)</t>
+  </si>
+  <si>
+    <t>4565 (0.0662632108976554, 0.049659201557935795, 0.07180173759924748, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3157 (0.08659173915139617, 0.06625615763546788, 0.09202691484593732, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1168 (0.09777376837224411, 0.07237613738780446, 0.10335703543749092, 0.687140115163148, -0.0958990536277603)</t>
+  </si>
+  <si>
+    <t>492 (0.11345232356491988, 0.09140011180997065, 0.10894965486334601, 0.6200119118522929, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>265 (0.1284188799454337, 0.1172638436482083, 0.1107038687755523, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>138 (0.13388906130880746, 0.12214614154338277, 0.11277674707535841, 0.49923664122137423, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>150 (0.1408687911104821, 0.135437814749387, 0.10093296065258373, 0.4766917293233084, -0.043109540636042554)</t>
+  </si>
+  <si>
+    <t>80 (0.17388873290474224, 0.17092363286048395, 0.09470734815332635, 0.44268774703557323, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <t>1 (0.20535714285714302, 0.20535714285714302, nan, 0.20535714285714302, 0.20535714285714302)</t>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num_leaves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>1006 (0.019573851540047392, 0.0, 0.040742719509854614, 0.40542133176193307, -0.053672316384180796)</t>
+  </si>
+  <si>
+    <t>5023 (0.06519240628337222, 0.048865619546247796, 0.07055902142105355, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3447 (0.08502733934014184, 0.06423357664233587, 0.09170142612317128, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1143 (0.10282118894858955, 0.07497857754927173, 0.10724227652815, 0.6616257088846884, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>463 (0.11699266849075098, 0.09514687100893982, 0.11252441689634902, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>206 (0.1125762998685219, 0.10751010647383719, 0.10132895353288904, 0.4441176470588235, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>154 (0.14450596605463292, 0.14159314057758465, 0.09832890754573201, 0.4766917293233084, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>106 (0.1652520148613837, 0.15813007461274575, 0.08882615096735894, 0.3712500000000001, -0.03302961275626415)</t>
+  </si>
+  <si>
+    <t>6 (0.2643345902054444, 0.26534011632464294, 0.12766688816699828, 0.44268774703557323, 0.11553784860557759)</t>
+  </si>
+  <si>
+    <t>577 (0.00500584691660871, 0.0, 0.027538380405132967, 0.40542133176193307, -0.008421052631578996)</t>
+  </si>
+  <si>
+    <t>5413 (0.06385946751674469, 0.048214285714285765, 0.06916343252220246, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3819 (0.08700497549149441, 0.06659388646288211, 0.09258616778597774, 0.8832684824902723, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1007 (0.1034020701064018, 0.07499999999999996, 0.1089821349188484, 0.6616257088846884, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>421 (0.10967414727789439, 0.08307692307692305, 0.11448806583410216, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>252 (0.14111128861474864, 0.1382408795602199, 0.10556497578971373, 0.4766917293233084, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>65 (0.15063314129790353, 0.14857954545454533, 0.1057391567086135, 0.44268774703557323, -0.03302961275626415)</t>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1392 (0.02694641230974305, 0.0021232283890513237, 0.04302925450749585, 0.40542133176193307, -0.06030150753768837)</t>
+  </si>
+  <si>
+    <t>4942 (0.06604578221573065, 0.04961126016761419, 0.07107075154071475, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3114 (0.08725888662895431, 0.0655315194766577, 0.09435418068542092, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1091 (0.1021519549267766, 0.07754010695187152, 0.10369901135746076, 0.6616257088846884, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>461 (0.11592155303001318, 0.09665427509293689, 0.11289258032250545, 0.6894409937888195, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>225 (0.12399310374540422, 0.11522134627046698, 0.11246749766290558, 0.49923664122137423, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>151 (0.1315591189038516, 0.12312811980033289, 0.10689904052798548, 0.4766917293233084, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>139 (0.154218718490174, 0.15628299894403375, 0.09322267837839915, 0.3786666666666667, -0.03302961275626415)</t>
+  </si>
+  <si>
+    <t>39 (0.17338055667464528, 0.15082335329341312, 0.0967894876869634, 0.44268774703557323, 0.03109987357774968)</t>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>990 (0.019869901324483328, 0.0, 0.04187338178247304, 0.40542133176193307, -0.06030150753768837)</t>
+  </si>
+  <si>
+    <t>4779 (0.06537178041856266, 0.048275862068965614, 0.07206867840369469, 0.8832684824902723, -0.12865267699548932)</t>
+  </si>
+  <si>
+    <t>3669 (0.08403931822544217, 0.06463414634146347, 0.0895411243692571, 0.8724528301886791, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1225 (0.09699188145256143, 0.07544338335607104, 0.09791870048940202, 0.6727145847871598, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>496 (0.12427572298063334, 0.10414956867465497, 0.12265886039669893, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>226 (0.12834266938826697, 0.11929770619091373, 0.1110860631841737, 0.49923664122137423, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>114 (0.15588964671575437, 0.15813007461274575, 0.09890991653521714, 0.4766917293233084, -0.03302961275626415)</t>
+  </si>
+  <si>
+    <t>55 (0.16046720675702061, 0.15082335329341312, 0.09599304042927842, 0.44268774703557323, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>max_depth=-1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>scale_pos_weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max_depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>lgbm.LGBMClassifier(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 (0.02010888234134399, 0.0, 0.04180455930372058, 0.40542133176193307, -0.053672316384180796)</t>
+  </si>
+  <si>
+    <t>4068 (0.06224158391470058, 0.047223861996589234, 0.06602930131161676, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3966 (0.08510822080323319, 0.06608893932257098, 0.09014965916466922, 0.8832684824902723, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1369 (0.09249391742323312, 0.0694799658994032, 0.09756715850686487, 0.6727145847871598, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>614 (0.1187942260319793, 0.09202029388788457, 0.1195579976186044, 0.6616257088846884, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>306 (0.12882877507701987, 0.1146217161809614, 0.11573173485813071, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>192 (0.12251889471640247, 0.113511571308063, 0.1033300007915449, 0.44268774703557323, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>36 (0.08641281370273081, 0.0742708356782148, 0.08130911500490971, 0.2811594202898551, -0.024699176694110148)</t>
+  </si>
+  <si>
+    <t>2 (-0.0026540126540126607, -0.0026540126540126607, 0.032037611937476444, 0.020000000000000018, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max_depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_depth=7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>997 (0.019465583435437257, 0.0, 0.04037275662136504, 0.40542133176193307, -0.053672316384180796)</t>
+  </si>
+  <si>
+    <t>5182 (0.0642351937578851, 0.04845920606423304, 0.07010216900988434, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3444 (0.0877059757215465, 0.06744482759849812, 0.09127194541336581, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1158 (0.10211004614588605, 0.07329419349223654, 0.10830441406016215, 0.687140115163148, -0.09074074074074079)</t>
+  </si>
+  <si>
+    <t>421 (0.13058820436430213, 0.11264367816091969, 0.11581527033170544, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>214 (0.13246133720019557, 0.12173658933245246, 0.11291769759434961, 0.49923664122137423, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>104 (0.15058319808798717, 0.15079046452549438, 0.10380513135334166, 0.44268774703557323, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>34 (0.14469955581358848, 0.14926656009960326, 0.08065595151790504, 0.3485221674876846, -0.0014634146341463428)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max_depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_depth=12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>899 (0.016344633521274424, 0.0, 0.037101924513174955, 0.40542133176193307, -0.050785973397823425)</t>
+  </si>
+  <si>
+    <t>5029 (0.06460837373491987, 0.048738710682030284, 0.06954350583190873, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3706 (0.0854722020297386, 0.0646702720700415, 0.09174363593083731, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1078 (0.10592380985773359, 0.08369472152061319, 0.1058613925288345, 0.6553672316384183, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>453 (0.11298850823559077, 0.08614718614718608, 0.11846739880788698, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>201 (0.13002452562609246, 0.12143928035982032, 0.1048868966551331, 0.41914618369987067, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>130 (0.1550166797337989, 0.15934702848009286, 0.10417572663650297, 0.4766917293233084, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <t>58 (0.1457844002260584, 0.14258814102564088, 0.10691743631523552, 0.44268774703557323, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>max_depth=10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>784 (0.012141247927711969, 0.0, 0.03426455658189946, 0.40542133176193307, -0.06030150753768837)</t>
+  </si>
+  <si>
+    <t>4902 (0.06486394531790884, 0.0489355620373485, 0.06826636324730283, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3602 (0.0844778165897403, 0.06210780155894968, 0.09382479570776318, 0.8832684824902723, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1195 (0.09841842469055019, 0.07499999999999996, 0.10316093129212726, 0.6616257088846884, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>529 (0.10722155152820569, 0.08695652173913038, 0.10247527715945029, 0.6316736652669463, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>301 (0.11507470201375902, 0.09882268997502663, 0.11032796828097907, 0.6894409937888195, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>177 (0.1461177116836945, 0.14601769911504414, 0.10708011804860737, 0.4766917293233084, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>64 (0.15437718812054962, 0.15079629203132194, 0.09506531734116049, 0.44268774703557323, -0.03302961275626415)</t>
+  </si>
+  <si>
+    <t>934 (0.014954882032090718, 0.0, 0.035884771220382555, 0.40542133176193307, -0.06030150753768837)</t>
+  </si>
+  <si>
+    <t>4557 (0.06270713373555815, 0.047529706066291366, 0.06950635554785606, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3901 (0.08518519047826714, 0.066747572815534, 0.08767409587901845, 0.8832684824902723, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1253 (0.10483127154330983, 0.07759882869692536, 0.1075092346805485, 0.6616257088846884, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>452 (0.11732503916956862, 0.09477524443606966, 0.1179321398866048, 0.6894409937888195, -0.07688532635367262)</t>
+  </si>
+  <si>
+    <t>264 (0.12628182485063913, 0.11938644026974954, 0.10832336119139979, 0.4766917293233084, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>170 (0.13922933717953298, 0.1352698529862677, 0.09895559129215108, 0.41193386053199155, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>23 (0.13295590962287196, 0.13659673659673643, 0.12212058780601796, 0.44268774703557323, -0.03302961275626415)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max_depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>min_child_samples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>947 (0.019876111228381156, 0.0, 0.04112889268597766, 0.40542133176193307, -0.06030150753768837)</t>
+  </si>
+  <si>
+    <t>5359 (0.06481243928887688, 0.04903883876029824, 0.0692111612205477, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3290 (0.08748835583876745, 0.06489929947460593, 0.09483775793144651, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1075 (0.10597177608545136, 0.07834482758620709, 0.10716680687452476, 0.6616257088846884, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>443 (0.10973578666571186, 0.09277003484320567, 0.10768438990627055, 0.6316736652669463, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>276 (0.13132046755809046, 0.11212365571419014, 0.11668422179695702, 0.6894409937888195, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>119 (0.13149072627950587, 0.11553784860557759, 0.10054202373507057, 0.41193386053199155, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>45 (0.1792863068329158, 0.17586063873911262, 0.09032777103393226, 0.44268774703557323, -0.02530802530802534)</t>
+  </si>
+  <si>
+    <t>1024 (0.018971816127757675, 0.0, 0.039234504692906694, 0.40542133176193307, -0.06030150753768837)</t>
+  </si>
+  <si>
+    <t>4862 (0.06361432018430915, 0.048154717116360435, 0.06810778022693367, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3538 (0.08681632576205348, 0.06616696214104012, 0.09171099843090849, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1252 (0.10429353552431965, 0.07523571130579898, 0.10874800633408387, 0.6727145847871598, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>465 (0.11036216339906045, 0.08917197452229297, 0.11197052405242729, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>245 (0.13186114678845082, 0.12143928035982032, 0.1070387952293156, 0.49923664122137423, -0.04541131716595359)</t>
+  </si>
+  <si>
+    <t>111 (0.156715645214803, 0.15875486381322945, 0.10431241741624135, 0.4441176470588235, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>57 (0.15807223195358697, 0.15628299894403375, 0.09091540859278817, 0.44268774703557323, -0.011627906976744207)</t>
+  </si>
+  <si>
+    <t>1036 (0.018664030217196866, 0.0, 0.0383110692695384, 0.40542133176193307, -0.06030150753768837)</t>
+  </si>
+  <si>
+    <t>5423 (0.0661516207262073, 0.05029853446716115, 0.06996011921627746, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3240 (0.08863590000063472, 0.06762895711909556, 0.09392613633005092, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1063 (0.10625709159277953, 0.07765263781861287, 0.11027317896596248, 0.6628686327077746, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>446 (0.11449210046689931, 0.0920061148539495, 0.1146516410978743, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>220 (0.13101664967065907, 0.11016700626925191, 0.11208568839096822, 0.49923664122137423, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>109 (0.13675323269251644, 0.13793103448275867, 0.10379252387117488, 0.4766917293233084, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>16 (0.20799498192661173, 0.20443146771663034, 0.08448864768282832, 0.44268774703557323, 0.04006346687822293)</t>
+  </si>
+  <si>
+    <t>1 (0.15263157894736823, 0.15263157894736823, nan, 0.15263157894736823, 0.15263157894736823)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>min_child_samples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=35</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1106 (0.020516205683127203, 0.0, 0.04074493488150711, 0.40542133176193307, -0.06030150753768837)</t>
+  </si>
+  <si>
+    <t>5211 (0.06563253470519144, 0.05011185682326613, 0.0690806456917413, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3117 (0.08886025238063047, 0.06701030927835072, 0.09539712144833819, 0.8832684824902723, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1181 (0.10185376474645098, 0.07368859283930052, 0.10681835879227428, 0.6727145847871598, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>510 (0.11079075404956922, 0.09136104769619757, 0.10865360681522014, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>254 (0.12132474919629536, 0.1088357957079975, 0.10885628959856047, 0.49923664122137423, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>145 (0.14666101375995472, 0.14879032258064506, 0.10256086534239249, 0.4441176470588235, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>30 (0.19757299102837056, 0.1871974113570699, 0.09023439070630092, 0.44268774703557323, 0.03109987357774968)</t>
+  </si>
+  <si>
+    <t>min_child_samples=30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 (0.019345481238428497, 0.0, 0.039955362688178495, 0.40542133176193307, -0.050785973397823425)</t>
+  </si>
+  <si>
+    <t>4583 (0.06498407974661241, 0.04840508587999115, 0.07224437980215702, 0.8832684824902723, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3794 (0.08366976048871798, 0.06274861194380021, 0.08951395393111249, 0.8724528301886791, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>1242 (0.10131032314765688, 0.08040023496539028, 0.10214233567731144, 0.6727145847871598, -0.10780487804878058)</t>
+  </si>
+  <si>
+    <t>458 (0.11637263569084648, 0.09765007426568506, 0.11149725772958498, 0.6894409937888195, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>272 (0.1196932588844739, 0.10965118566090004, 0.10473270046683332, 0.49923664122137423, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>145 (0.14963024237462114, 0.14526659412404808, 0.10592890222427014, 0.4766917293233084, -0.043109540636042554)</t>
+  </si>
+  <si>
+    <t>59 (0.14360333403690248, 0.14857954545454533, 0.10363820045169102, 0.44268774703557323, -0.0774077407740773)</t>
+  </si>
+  <si>
+    <t>min_child_samples=25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>948 (0.014644628668130474, 0.0, 0.03431235434998566, 0.40542133176193307, -0.053672316384180796)</t>
+  </si>
+  <si>
+    <t>4792 (0.06433660268483213, 0.04867248383352696, 0.06951173938108143, 0.7545388525780681, -0.18314559866499802)</t>
+  </si>
+  <si>
+    <t>3634 (0.08651061108041709, 0.06652370067610403, 0.09129507517629509, 0.8832684824902723, -0.11646136618141101)</t>
+  </si>
+  <si>
+    <t>1292 (0.10243451677702808, 0.08021729059903293, 0.10346868094940899, 0.6616257088846884, -0.19402173913043474)</t>
+  </si>
+  <si>
+    <t>405 (0.10821418326189988, 0.0828263002944063, 0.1088498756598309, 0.6200119118522929, -0.11037410453701235)</t>
+  </si>
+  <si>
+    <t>277 (0.12226330635901181, 0.10494450050454085, 0.11635106745779887, 0.6894409937888195, -0.10079184002147368)</t>
+  </si>
+  <si>
+    <t>166 (0.13965563021077473, 0.12603013268526353, 0.10894965452224233, 0.4766917293233084, -0.0837500000000001)</t>
+  </si>
+  <si>
+    <t>40 (0.16739982936739356, 0.17831685367718475, 0.10866230152371867, 0.44268774703557323, -0.03302961275626415)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n_estimators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num_leaves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max_depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>random_state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>min_child_samples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
     </r>
   </si>
 </sst>
@@ -1772,11 +4301,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1818,7 +4347,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1827,24 +4356,14 @@
       <sz val="9"/>
       <color rgb="FFA9B7C6"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFAA4926"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF6897BB"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFCC7832"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1901,7 +4420,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2217,312 +4736,953 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296F8B7A-5696-407A-BE4B-C1C38C1030FB}">
-  <dimension ref="A1:N63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DAE223-4CC9-40F2-A3C1-84F5C8357B80}">
+  <dimension ref="A1:A118"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:N77"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296F8B7A-5696-407A-BE4B-C1C38C1030FB}">
+  <dimension ref="A1:N70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>17</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N38" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>21</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="N47" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
-      <c r="A41" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>22</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
-      <c r="A43" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>25</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>26</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="N52" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
-      <c r="A47" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
-      <c r="A48" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
-      <c r="A54" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>37</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="N61" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
-      <c r="A55" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>38</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
-      <c r="A56" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>39</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="N63" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
-      <c r="A57" t="s">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>40</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" t="s">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>41</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
-      <c r="A59" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>42</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="N66" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
-      <c r="A60" t="s">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61" t="s">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
-      <c r="A62" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
-      <c r="A63" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2533,741 +5693,778 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A384DD-462D-4622-900F-61FD572F04F9}">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="N143" sqref="N143:N147"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>78</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N29" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>79</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>80</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>82</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>83</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>84</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="N44" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
-      <c r="A41" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>89</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
-      <c r="A43" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>91</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>92</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>93</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>94</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
-      <c r="A47" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
-      <c r="A48" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="N53" s="6" t="s">
+      <c r="N57" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
-      <c r="A54" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>12</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="N58" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
-      <c r="A55" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>13</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
-      <c r="A56" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>14</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="N60" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
-      <c r="A57" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>15</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
-      <c r="A59" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>17</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="N63" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
-      <c r="A60" t="s">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61" t="s">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
-      <c r="A62" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
-      <c r="A67" t="s">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>115</v>
       </c>
-      <c r="N67" s="6" t="s">
+      <c r="N71" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
-      <c r="A68" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>116</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="N72" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
-      <c r="A69" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>117</v>
       </c>
-      <c r="N69" s="3" t="s">
+      <c r="N73" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
-      <c r="A70" t="s">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>118</v>
       </c>
-      <c r="N70" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
-      <c r="A71" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>119</v>
       </c>
-      <c r="N71" s="3" t="s">
+      <c r="N75" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
-      <c r="A72" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>120</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="N76" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
-      <c r="A73" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>121</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="N77" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
-      <c r="A74" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
-      <c r="A75" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
-      <c r="A76" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
-      <c r="A82" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>106</v>
       </c>
-      <c r="N82" s="6" t="s">
+      <c r="N86" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
-      <c r="A83" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>107</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="N87" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
-      <c r="A84" t="s">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>108</v>
       </c>
-      <c r="N84" s="3" t="s">
+      <c r="N88" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
-      <c r="A85" t="s">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>109</v>
       </c>
-      <c r="N85" s="3" t="s">
+      <c r="N89" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
-      <c r="A86" t="s">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>110</v>
       </c>
-      <c r="N86" s="3" t="s">
+      <c r="N90" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
-      <c r="A87" t="s">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>111</v>
       </c>
-      <c r="N87" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
-      <c r="A88" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>112</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="N92" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
-      <c r="A89" t="s">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
-      <c r="A90" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
-      <c r="A91" t="s">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
-      <c r="A92" t="s">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
-      <c r="A97" t="s">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>103</v>
       </c>
-      <c r="N97" s="6" t="s">
+      <c r="N101" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
-      <c r="A98" t="s">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>104</v>
       </c>
-      <c r="N98" s="2" t="s">
+      <c r="N102" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
-      <c r="A99" t="s">
-        <v>105</v>
-      </c>
-      <c r="N99" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" t="s">
-        <v>105</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
-      <c r="N103" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="N103" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="N104" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="N105" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" t="s">
+      <c r="N106" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>125</v>
       </c>
-      <c r="N111" s="6" t="s">
+      <c r="N115" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
-      <c r="A112" t="s">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>126</v>
       </c>
-      <c r="N112" s="7" t="s">
+      <c r="N116" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
-      <c r="A113" t="s">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>127</v>
       </c>
-      <c r="N113" s="8" t="s">
+      <c r="N117" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
-      <c r="A114" t="s">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>128</v>
       </c>
-      <c r="N114" s="8" t="s">
+      <c r="N118" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
-      <c r="A115" t="s">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>129</v>
       </c>
-      <c r="N115" s="8" t="s">
+      <c r="N119" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
-      <c r="A116" t="s">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>130</v>
       </c>
-      <c r="N116" s="8" t="s">
+      <c r="N120" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
-      <c r="A117" t="s">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
-      <c r="A118" t="s">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
-      <c r="A119" t="s">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
-      <c r="A120" t="s">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
-      <c r="A121" t="s">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
-      <c r="A127" t="s">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>141</v>
       </c>
-      <c r="N127" s="6" t="s">
+      <c r="N131" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
-      <c r="A128" t="s">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>142</v>
       </c>
-      <c r="N128" s="7" t="s">
+      <c r="N132" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
-      <c r="A129" t="s">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>143</v>
       </c>
-      <c r="N129" s="8" t="s">
+      <c r="N133" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
-      <c r="A130" t="s">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>144</v>
       </c>
-      <c r="N130" s="8" t="s">
+      <c r="N134" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
-      <c r="A131" t="s">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>145</v>
       </c>
-      <c r="N131" s="8" t="s">
+      <c r="N135" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
-      <c r="A132" t="s">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>146</v>
       </c>
-      <c r="N132" s="8" t="s">
+      <c r="N136" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
-      <c r="A133" t="s">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
-      <c r="A134" t="s">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
-      <c r="A135" t="s">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
-      <c r="A136" t="s">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
-      <c r="A142" t="s">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>154</v>
       </c>
-      <c r="N142" s="6" t="s">
+      <c r="N146" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
-      <c r="A143" t="s">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>155</v>
       </c>
-      <c r="N143" s="7" t="s">
+      <c r="N147" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
-      <c r="A144" t="s">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>156</v>
       </c>
-      <c r="N144" s="8" t="s">
+      <c r="N148" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
-      <c r="A145" t="s">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>157</v>
       </c>
-      <c r="N145" s="8" t="s">
+      <c r="N149" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
-      <c r="A146" t="s">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>158</v>
       </c>
-      <c r="N146" s="8" t="s">
+      <c r="N150" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
-      <c r="A147" t="s">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>159</v>
       </c>
-      <c r="N147" s="8" t="s">
+      <c r="N151" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
-      <c r="A148" t="s">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
-      <c r="A149" t="s">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
-      <c r="A150" t="s">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
-      <c r="A151" t="s">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3276,4 +6473,2787 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CCFB08-4EF5-4841-83AF-F7ED2BE167A6}">
+  <dimension ref="A1:N117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>200</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>201</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>202</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>203</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>204</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>205</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>206</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>313</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>314</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>315</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>316</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>317</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>318</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>319</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>320</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>177</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>179</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>180</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>181</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>182</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>183</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>184</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>303</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>304</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>305</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>306</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>307</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>308</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>309</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>310</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>188</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>189</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>190</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>191</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>192</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>193</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>194</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>195</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07613B6-439A-426F-B15D-30E9C0995680}">
+  <dimension ref="A1:N107"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>335</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>336</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>337</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>338</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>339</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>340</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>341</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>342</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>324</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>325</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>326</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>327</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>328</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>329</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>330</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>331</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>368</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>369</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>370</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>371</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>372</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>373</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>374</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>375</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>346</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>347</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>348</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>349</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>350</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>351</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>352</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>353</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>357</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>358</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>359</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>360</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>361</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>362</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>363</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>364</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7303993-5C70-4222-98DC-9B44F3658030}">
+  <dimension ref="A1:AG192"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:N132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>391</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>392</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="T14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>393</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>394</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="T16" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>395</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T17" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>396</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" t="s">
+        <v>362</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>397</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>398</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>399</v>
+      </c>
+      <c r="T21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>400</v>
+      </c>
+      <c r="T22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>402</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="T29" t="s">
+        <v>380</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>403</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T30" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>404</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="T31" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>405</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T32" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>406</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>407</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T34" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>408</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T35" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>409</v>
+      </c>
+      <c r="T36" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>410</v>
+      </c>
+      <c r="T37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="T38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>346</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>347</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>348</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>349</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>350</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>351</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>352</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>353</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>412</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>413</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>414</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>415</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>416</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>417</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>418</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>419</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>442</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>443</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>444</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>445</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>446</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>447</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>448</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>449</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>425</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>426</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>427</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>428</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>429</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>430</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>431</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>432</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>434</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>435</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>436</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>437</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>438</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>439</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>440</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>105</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>452</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>453</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>454</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>455</v>
+      </c>
+      <c r="N126" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>456</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>457</v>
+      </c>
+      <c r="N128" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>458</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>459</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>464</v>
+      </c>
+      <c r="N137" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>465</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>466</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>467</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>468</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>469</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>470</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>471</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>475</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>476</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>477</v>
+      </c>
+      <c r="N155" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>478</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>479</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>480</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>481</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>482</v>
+      </c>
+      <c r="N160" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E18355F-B3E8-4039-82D4-A91A0C18A6BF}">
+  <dimension ref="A14:N112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>502</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>503</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>504</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>505</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>506</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>507</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>508</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>509</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>512</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>513</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>514</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>515</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>516</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>517</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>518</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>519</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>520</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>521</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>522</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>523</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>524</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>525</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>526</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>527</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>528</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>529</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>530</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>531</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>532</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>533</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>534</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>535</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>452</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>453</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>454</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>455</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>456</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>457</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>458</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>459</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56A54C8-2DCA-47F9-870E-2FDBDBB96446}">
+  <dimension ref="A15:N40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>556</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>557</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>558</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>559</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>560</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>561</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>